--- a/data CHILE/data provincias.xlsx
+++ b/data CHILE/data provincias.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\QLAB\Streamlit\data CHILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u_sociales\Documents\GitHub\Streamlit---Dashboard\data CHILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11353B4-DF04-44AB-B9E7-72B4BBBF26F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA95F2A-A66A-4972-B4F9-925E46A21407}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17355" windowHeight="7185" xr2:uid="{DE5FB94C-442E-43CC-B666-C034F8F56C08}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="28">
   <si>
     <t>sector_ID</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t>Ñuble</t>
+  </si>
+  <si>
+    <t>codregion</t>
+  </si>
+  <si>
+    <t>90-day standardized backlog</t>
+  </si>
+  <si>
+    <t>180-day standardized backlog</t>
+  </si>
+  <si>
+    <t>incumbency status</t>
+  </si>
+  <si>
+    <t>test_type</t>
   </si>
 </sst>
 </file>
@@ -156,7 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,6 +195,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FD1A18-E8F5-4C08-A3B2-B379E8BEDCA3}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +525,7 @@
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,16 +536,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -537,17 +561,23 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
+      <c r="D2" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -557,17 +587,23 @@
       <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
+      <c r="D3" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -577,17 +613,24 @@
       <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>26723</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -597,17 +640,23 @@
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -617,17 +666,23 @@
       <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
+      <c r="D6" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -637,18 +692,24 @@
       <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
+      <c r="D7" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -658,17 +719,23 @@
       <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
+      <c r="D8" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -678,17 +745,23 @@
       <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -698,17 +771,23 @@
       <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
+      <c r="D10" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -718,17 +797,23 @@
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7">
         <v>0.121</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="7">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>9213</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -738,17 +823,23 @@
       <c r="C12" s="5">
         <v>2</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
+      <c r="D12" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -758,17 +849,23 @@
       <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="7">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>9616</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -778,17 +875,23 @@
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>5</v>
       </c>
@@ -798,17 +901,23 @@
       <c r="C15" s="5">
         <v>2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3">
         <v>-2.2700000000000001E-2</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="7">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <v>215159</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>5</v>
       </c>
@@ -818,17 +927,23 @@
       <c r="C16" s="5">
         <v>3</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="3">
         <v>2.86E-2</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <v>223483</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>6</v>
       </c>
@@ -838,17 +953,23 @@
       <c r="C17" s="5">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -858,17 +979,23 @@
       <c r="C18" s="5">
         <v>2</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>6</v>
       </c>
@@ -878,17 +1005,23 @@
       <c r="C19" s="5">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="7">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="E19" s="7">
+      <c r="F19" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>39482</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>7</v>
       </c>
@@ -898,17 +1031,23 @@
       <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="7">
         <v>-4.2900000000000001E-2</v>
       </c>
-      <c r="E20" s="7">
+      <c r="F20" s="7">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>79345</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>7</v>
       </c>
@@ -918,17 +1057,23 @@
       <c r="C21" s="5">
         <v>2</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>7</v>
       </c>
@@ -938,17 +1083,23 @@
       <c r="C22" s="5">
         <v>3</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="7">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="E22" s="7">
+      <c r="F22" s="7">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>83141</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>8</v>
       </c>
@@ -958,17 +1109,23 @@
       <c r="C23" s="5">
         <v>1</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="7">
         <v>-5.8299999999999998E-2</v>
       </c>
-      <c r="E23" s="7">
+      <c r="F23" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>144101</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>8</v>
       </c>
@@ -978,17 +1135,23 @@
       <c r="C24" s="5">
         <v>2</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="7">
         <v>-3.7100000000000001E-2</v>
       </c>
-      <c r="E24" s="7">
+      <c r="F24" s="7">
         <v>3.9E-2</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <v>144101</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>8</v>
       </c>
@@ -998,17 +1161,23 @@
       <c r="C25" s="5">
         <v>3</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="7">
         <v>1.43E-2</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F25" s="7">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G25" s="5">
         <v>150262</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>9</v>
       </c>
@@ -1018,17 +1187,23 @@
       <c r="C26" s="5">
         <v>1</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>9</v>
       </c>
@@ -1038,17 +1213,23 @@
       <c r="C27" s="5">
         <v>2</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>9</v>
       </c>
@@ -1058,17 +1239,23 @@
       <c r="C28" s="5">
         <v>3</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>10</v>
       </c>
@@ -1078,17 +1265,23 @@
       <c r="C29" s="5">
         <v>1</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>10</v>
       </c>
@@ -1098,17 +1291,23 @@
       <c r="C30" s="5">
         <v>2</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>10</v>
       </c>
@@ -1118,17 +1317,23 @@
       <c r="C31" s="5">
         <v>3</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="7">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="E31" s="7">
+      <c r="F31" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G31" s="5">
         <v>53305</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>11</v>
       </c>
@@ -1138,17 +1343,23 @@
       <c r="C32" s="5">
         <v>1</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>11</v>
       </c>
@@ -1158,17 +1369,23 @@
       <c r="C33" s="5">
         <v>2</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>11</v>
       </c>
@@ -1178,17 +1395,23 @@
       <c r="C34" s="5">
         <v>3</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>12</v>
       </c>
@@ -1198,17 +1421,23 @@
       <c r="C35" s="5">
         <v>1</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="7">
         <v>-2.8899999999999999E-2</v>
       </c>
-      <c r="E35" s="7">
+      <c r="F35" s="7">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G35" s="5">
         <v>180388</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>12</v>
       </c>
@@ -1218,17 +1447,23 @@
       <c r="C36" s="5">
         <v>2</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="7">
         <v>-3.27E-2</v>
       </c>
-      <c r="E36" s="7">
+      <c r="F36" s="7">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G36" s="5">
         <v>180388</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>12</v>
       </c>
@@ -1238,17 +1473,23 @@
       <c r="C37" s="5">
         <v>3</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>13</v>
       </c>
@@ -1258,17 +1499,23 @@
       <c r="C38" s="5">
         <v>1</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="7">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="E38" s="7">
+      <c r="F38" s="7">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <v>211004</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>13</v>
       </c>
@@ -1278,17 +1525,23 @@
       <c r="C39" s="5">
         <v>2</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>13</v>
       </c>
@@ -1298,17 +1551,23 @@
       <c r="C40" s="5">
         <v>3</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="7">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E40" s="7">
+      <c r="F40" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F40" s="5">
+      <c r="G40" s="5">
         <v>218489</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>14</v>
       </c>
@@ -1318,17 +1577,23 @@
       <c r="C41" s="5">
         <v>1</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>14</v>
       </c>
@@ -1338,17 +1603,23 @@
       <c r="C42" s="5">
         <v>2</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>14</v>
       </c>
@@ -1358,17 +1629,23 @@
       <c r="C43" s="5">
         <v>3</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>15</v>
       </c>
@@ -1378,17 +1655,23 @@
       <c r="C44" s="5">
         <v>1</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>15</v>
       </c>
@@ -1398,17 +1681,23 @@
       <c r="C45" s="5">
         <v>2</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>15</v>
       </c>
@@ -1418,17 +1707,23 @@
       <c r="C46" s="5">
         <v>3</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="7">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="E46" s="7">
+      <c r="F46" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F46" s="5">
+      <c r="G46" s="5">
         <v>156383</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>16</v>
       </c>
@@ -1438,17 +1733,23 @@
       <c r="C47" s="5">
         <v>1</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>16</v>
       </c>
@@ -1458,17 +1759,23 @@
       <c r="C48" s="5">
         <v>2</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>16</v>
       </c>
@@ -1478,15 +1785,24 @@
       <c r="C49" s="5">
         <v>3</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="7">
         <v>5.8099999999999999E-2</v>
       </c>
-      <c r="E49" s="7">
+      <c r="F49" s="7">
         <v>3.1E-2</v>
       </c>
-      <c r="F49" s="5">
+      <c r="G49" s="5">
         <v>6923</v>
       </c>
+      <c r="H49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E50" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
